--- a/results/gurobi_cplex_comparison/seed_40_k_30.xlsx
+++ b/results/gurobi_cplex_comparison/seed_40_k_30.xlsx
@@ -429,10 +429,10 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.042</v>
+        <v>0.855</v>
       </c>
       <c r="F2">
-        <v>0.039</v>
+        <v>0.253</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -449,10 +449,10 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.025</v>
+        <v>1.23</v>
       </c>
       <c r="F3">
-        <v>0.052</v>
+        <v>0.332</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -469,10 +469,10 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.019</v>
+        <v>1.61</v>
       </c>
       <c r="F4">
-        <v>0.035</v>
+        <v>0.406</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -489,10 +489,10 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.026</v>
+        <v>2.091</v>
       </c>
       <c r="F5">
-        <v>0.047</v>
+        <v>0.504</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -509,10 +509,10 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.031</v>
+        <v>2.647</v>
       </c>
       <c r="F6">
-        <v>0.043</v>
+        <v>0.643</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -529,10 +529,10 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.035</v>
+        <v>3.273</v>
       </c>
       <c r="F7">
-        <v>0.049</v>
+        <v>0.737</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -549,10 +549,10 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.041</v>
+        <v>3.995</v>
       </c>
       <c r="F8">
-        <v>0.074</v>
+        <v>0.898</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -569,10 +569,10 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.083</v>
+        <v>4.808</v>
       </c>
       <c r="F9">
-        <v>0.077</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -589,10 +589,10 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.03</v>
+        <v>5.569</v>
       </c>
       <c r="F10">
-        <v>0.066</v>
+        <v>1.177</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -609,10 +609,10 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.043</v>
+        <v>6.466</v>
       </c>
       <c r="F11">
-        <v>1.599</v>
+        <v>1.778</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -629,10 +629,10 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.105</v>
+        <v>7.423</v>
       </c>
       <c r="F12">
-        <v>131.326</v>
+        <v>79.94</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -649,10 +649,10 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.078</v>
+        <v>8.457000000000001</v>
       </c>
       <c r="F13">
-        <v>86.718</v>
+        <v>72.536</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -669,10 +669,10 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.156</v>
+        <v>9.69</v>
       </c>
       <c r="F14">
-        <v>107.928</v>
+        <v>83.18300000000001</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.07099999999999999</v>
+        <v>10.672</v>
       </c>
       <c r="F15">
-        <v>104.649</v>
+        <v>128.443</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -709,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.08</v>
+        <v>11.94</v>
       </c>
       <c r="F16">
-        <v>116.33</v>
+        <v>141.874</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -729,10 +729,10 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.094</v>
+        <v>13.259</v>
       </c>
       <c r="F17">
-        <v>126.605</v>
+        <v>107.37</v>
       </c>
     </row>
   </sheetData>
